--- a/www/IndicatorsPerCountry/Croatia_GDPperCapita_TerritorialRef_1992_2012_CCode_191.xlsx
+++ b/www/IndicatorsPerCountry/Croatia_GDPperCapita_TerritorialRef_1992_2012_CCode_191.xlsx
@@ -240,13 +240,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Croatia_GDPperCapita_TerritorialRef_1992_2012_CCode_191.xlsx
+++ b/www/IndicatorsPerCountry/Croatia_GDPperCapita_TerritorialRef_1992_2012_CCode_191.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="84">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,181 +36,199 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>1709.432124</t>
-  </si>
-  <si>
-    <t>1843.336094</t>
-  </si>
-  <si>
-    <t>1993.511329</t>
-  </si>
-  <si>
-    <t>2340.381087</t>
-  </si>
-  <si>
-    <t>2225.664719</t>
-  </si>
-  <si>
-    <t>2624.668913</t>
-  </si>
-  <si>
-    <t>2675.098935</t>
-  </si>
-  <si>
-    <t>2897.003801</t>
-  </si>
-  <si>
-    <t>3163.669344</t>
-  </si>
-  <si>
-    <t>3374.007635</t>
-  </si>
-  <si>
-    <t>3439.88107</t>
-  </si>
-  <si>
-    <t>3782.626438</t>
-  </si>
-  <si>
-    <t>4114.873398</t>
-  </si>
-  <si>
-    <t>4209.314503</t>
-  </si>
-  <si>
-    <t>4485.431864</t>
-  </si>
-  <si>
-    <t>4608.820184</t>
-  </si>
-  <si>
-    <t>4787.54024</t>
-  </si>
-  <si>
-    <t>5125.400444</t>
-  </si>
-  <si>
-    <t>5463.635529</t>
-  </si>
-  <si>
-    <t>5878.217577</t>
-  </si>
-  <si>
-    <t>6013.53089</t>
-  </si>
-  <si>
-    <t>6224.391562</t>
-  </si>
-  <si>
-    <t>6735.119981</t>
-  </si>
-  <si>
-    <t>6900.649415</t>
-  </si>
-  <si>
-    <t>7160.955021</t>
-  </si>
-  <si>
-    <t>7732.69834</t>
-  </si>
-  <si>
-    <t>8281.942774</t>
-  </si>
-  <si>
-    <t>8737.472707</t>
-  </si>
-  <si>
-    <t>8861.422233</t>
-  </si>
-  <si>
-    <t>8921.518622</t>
-  </si>
-  <si>
-    <t>8847.365243</t>
-  </si>
-  <si>
-    <t>8662.320386</t>
-  </si>
-  <si>
-    <t>8821.058637</t>
-  </si>
-  <si>
-    <t>8811.931186</t>
-  </si>
-  <si>
-    <t>9036.536594</t>
-  </si>
-  <si>
-    <t>9016.359639</t>
-  </si>
-  <si>
-    <t>8917.030548</t>
-  </si>
-  <si>
-    <t>8743.660688</t>
-  </si>
-  <si>
-    <t>8122.86077906</t>
-  </si>
-  <si>
-    <t>6792.17029404</t>
-  </si>
-  <si>
-    <t>6051.38827229</t>
-  </si>
-  <si>
-    <t>5363.51925209</t>
-  </si>
-  <si>
-    <t>5667.41149074</t>
-  </si>
-  <si>
-    <t>6027.07689319</t>
-  </si>
-  <si>
-    <t>6638.43657331</t>
-  </si>
-  <si>
-    <t>6965.92515049</t>
-  </si>
-  <si>
-    <t>7252.65641567</t>
-  </si>
-  <si>
-    <t>7111.07838448</t>
-  </si>
-  <si>
-    <t>7391.37428461</t>
-  </si>
-  <si>
-    <t>7827.54902714</t>
-  </si>
-  <si>
-    <t>8259.43352631</t>
-  </si>
-  <si>
-    <t>8702.75867446</t>
-  </si>
-  <si>
-    <t>9071.71960422</t>
-  </si>
-  <si>
-    <t>9460.70166969</t>
-  </si>
-  <si>
-    <t>9915.46746683</t>
-  </si>
-  <si>
-    <t>10473.1991048</t>
-  </si>
-  <si>
-    <t>10724.5558833</t>
-  </si>
-  <si>
-    <t>9984.23409474</t>
-  </si>
-  <si>
-    <t>9849.4934707</t>
+    <t>2738</t>
+  </si>
+  <si>
+    <t>2952</t>
+  </si>
+  <si>
+    <t>3193</t>
+  </si>
+  <si>
+    <t>3749</t>
+  </si>
+  <si>
+    <t>3564</t>
+  </si>
+  <si>
+    <t>4203</t>
+  </si>
+  <si>
+    <t>4285</t>
+  </si>
+  <si>
+    <t>4640</t>
+  </si>
+  <si>
+    <t>5067</t>
+  </si>
+  <si>
+    <t>5404</t>
+  </si>
+  <si>
+    <t>5509</t>
+  </si>
+  <si>
+    <t>6059</t>
+  </si>
+  <si>
+    <t>6591</t>
+  </si>
+  <si>
+    <t>6741</t>
+  </si>
+  <si>
+    <t>7184</t>
+  </si>
+  <si>
+    <t>7382</t>
+  </si>
+  <si>
+    <t>7667</t>
+  </si>
+  <si>
+    <t>8209</t>
+  </si>
+  <si>
+    <t>8751</t>
+  </si>
+  <si>
+    <t>9414</t>
+  </si>
+  <si>
+    <t>9631</t>
+  </si>
+  <si>
+    <t>9969</t>
+  </si>
+  <si>
+    <t>10786</t>
+  </si>
+  <si>
+    <t>11053</t>
+  </si>
+  <si>
+    <t>11469</t>
+  </si>
+  <si>
+    <t>12385</t>
+  </si>
+  <si>
+    <t>13265</t>
+  </si>
+  <si>
+    <t>13994</t>
+  </si>
+  <si>
+    <t>14193</t>
+  </si>
+  <si>
+    <t>14182</t>
+  </si>
+  <si>
+    <t>14123</t>
+  </si>
+  <si>
+    <t>13841</t>
+  </si>
+  <si>
+    <t>14104</t>
+  </si>
+  <si>
+    <t>14067</t>
+  </si>
+  <si>
+    <t>14416</t>
+  </si>
+  <si>
+    <t>14362</t>
+  </si>
+  <si>
+    <t>14207</t>
+  </si>
+  <si>
+    <t>13959</t>
+  </si>
+  <si>
+    <t>12948</t>
+  </si>
+  <si>
+    <t>10296.1907490574</t>
+  </si>
+  <si>
+    <t>9331.89265228301</t>
+  </si>
+  <si>
+    <t>8739.54023943057</t>
+  </si>
+  <si>
+    <t>9352.58398283599</t>
+  </si>
+  <si>
+    <t>10180.2515340075</t>
+  </si>
+  <si>
+    <t>11030.0793094036</t>
+  </si>
+  <si>
+    <t>11997.5930919162</t>
+  </si>
+  <si>
+    <t>12476.0465258677</t>
+  </si>
+  <si>
+    <t>12579.8767751366</t>
+  </si>
+  <si>
+    <t>13244.540749737</t>
+  </si>
+  <si>
+    <t>13817.6807648672</t>
+  </si>
+  <si>
+    <t>14683.8377031207</t>
+  </si>
+  <si>
+    <t>15740.4985591124</t>
+  </si>
+  <si>
+    <t>16628.574443674</t>
+  </si>
+  <si>
+    <t>17581.3583511818</t>
+  </si>
+  <si>
+    <t>18707.4908615648</t>
+  </si>
+  <si>
+    <t>19984.0374311963</t>
+  </si>
+  <si>
+    <t>20717.3157388307</t>
+  </si>
+  <si>
+    <t>19501.5885947662</t>
+  </si>
+  <si>
+    <t>19511.3503059546</t>
+  </si>
+  <si>
+    <t>19813</t>
+  </si>
+  <si>
+    <t>19441</t>
+  </si>
+  <si>
+    <t>19298</t>
+  </si>
+  <si>
+    <t>19284</t>
+  </si>
+  <si>
+    <t>19698</t>
+  </si>
+  <si>
+    <t>20376</t>
   </si>
   <si>
     <t>Description</t>
@@ -1317,6 +1335,108 @@
         <v>65</v>
       </c>
     </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>191.0</v>
+      </c>
+      <c r="B61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E61" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>191.0</v>
+      </c>
+      <c r="B62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E62" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>191.0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E63" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>191.0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>191.0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>191.0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E66" t="s">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1332,50 +1452,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
